--- a/SPLK_AIRBUS_LAB_2.xlsx
+++ b/SPLK_AIRBUS_LAB_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64440EE-9BAC-4472-9985-EDF8683D45C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141EAE1D-D4A7-475D-B0F7-D8CE2EB5C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C50E4053-E009-4B20-B72A-C5EE2095B632}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>SI. No</t>
   </si>
@@ -142,6 +142,54 @@
   </si>
   <si>
     <t>AIRBUS SPLUNK LAB CREDENTIALS (18th Nov - 23rd Nov)</t>
+  </si>
+  <si>
+    <t>IP ADDRESS - 2</t>
+  </si>
+  <si>
+    <t>13.234.239.55</t>
+  </si>
+  <si>
+    <t>13.126.119.200</t>
+  </si>
+  <si>
+    <t>13.127.47.120</t>
+  </si>
+  <si>
+    <t>13.233.165.167</t>
+  </si>
+  <si>
+    <t>13.235.248.65</t>
+  </si>
+  <si>
+    <t>65.1.84.24</t>
+  </si>
+  <si>
+    <t>3.110.133.115</t>
+  </si>
+  <si>
+    <t>13.232.226.71</t>
+  </si>
+  <si>
+    <t>13.233.87.48</t>
+  </si>
+  <si>
+    <t>13.232.226.143</t>
+  </si>
+  <si>
+    <t>65.0.130.115</t>
+  </si>
+  <si>
+    <t>52.66.197.166</t>
+  </si>
+  <si>
+    <t>52.66.4.114</t>
+  </si>
+  <si>
+    <t>65.1.114.20</t>
+  </si>
+  <si>
+    <t>43.205.99.77</t>
   </si>
 </sst>
 </file>
@@ -171,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,16 +242,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB2E234-29E5-4937-9D34-1A2A865E222F}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,244 +590,345 @@
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPLK_AIRBUS_LAB_2.xlsx
+++ b/SPLK_AIRBUS_LAB_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141EAE1D-D4A7-475D-B0F7-D8CE2EB5C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427AEBF3-4DDE-4044-8F94-29D6ED327ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C50E4053-E009-4B20-B72A-C5EE2095B632}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>SI. No</t>
   </si>
@@ -190,14 +190,118 @@
   </si>
   <si>
     <t>43.205.99.77</t>
+  </si>
+  <si>
+    <t>IP Address - 3</t>
+  </si>
+  <si>
+    <t>IP Address - 4</t>
+  </si>
+  <si>
+    <t>13.233.89.201</t>
+  </si>
+  <si>
+    <t>3.109.184.3</t>
+  </si>
+  <si>
+    <t>13.233.129.132</t>
+  </si>
+  <si>
+    <t>65.0.17.121</t>
+  </si>
+  <si>
+    <t>13.201.39.151</t>
+  </si>
+  <si>
+    <t>13.233.63.29</t>
+  </si>
+  <si>
+    <t>65.2.172.63</t>
+  </si>
+  <si>
+    <t>13.233.84.215</t>
+  </si>
+  <si>
+    <t>13.127.77.159</t>
+  </si>
+  <si>
+    <t>15.206.171.207</t>
+  </si>
+  <si>
+    <t>13.233.208.121</t>
+  </si>
+  <si>
+    <t>13.233.214.159</t>
+  </si>
+  <si>
+    <t>13.126.198.127</t>
+  </si>
+  <si>
+    <t>65.2.146.151</t>
+  </si>
+  <si>
+    <t>13.233.252.249</t>
+  </si>
+  <si>
+    <t>65.0.95.87</t>
+  </si>
+  <si>
+    <t>13.232.214.56</t>
+  </si>
+  <si>
+    <t>13.233.142.152</t>
+  </si>
+  <si>
+    <t>3.110.160.62</t>
+  </si>
+  <si>
+    <t>65.0.86.120</t>
+  </si>
+  <si>
+    <t>15.206.122.37</t>
+  </si>
+  <si>
+    <t>13.201.52.146</t>
+  </si>
+  <si>
+    <t>13.126.86.253</t>
+  </si>
+  <si>
+    <t>35.154.145.87</t>
+  </si>
+  <si>
+    <t>65.1.131.7</t>
+  </si>
+  <si>
+    <t>13.201.35.58</t>
+  </si>
+  <si>
+    <t>13.127.0.17</t>
+  </si>
+  <si>
+    <t>13.235.246.178</t>
+  </si>
+  <si>
+    <t>13.233.247.245</t>
+  </si>
+  <si>
+    <t>52.66.188.104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,29 +346,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB2E234-29E5-4937-9D34-1A2A865E222F}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,10 +684,11 @@
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="3"/>
@@ -603,8 +696,10 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,14 +712,20 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -640,11 +741,17 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -660,11 +767,17 @@
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -680,11 +793,17 @@
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -700,11 +819,17 @@
       <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -720,11 +845,17 @@
       <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -740,11 +871,17 @@
       <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -760,11 +897,17 @@
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -780,11 +923,17 @@
       <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -800,11 +949,17 @@
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -820,11 +975,17 @@
       <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -840,11 +1001,17 @@
       <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -860,11 +1027,17 @@
       <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -880,11 +1053,17 @@
       <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -900,11 +1079,17 @@
       <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -920,13 +1105,19 @@
       <c r="E17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>34</v>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
